--- a/20170927-devices/builds/production/data/maindata.xlsx
+++ b/20170927-devices/builds/production/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
     <sheet name="pew_data" sheetId="5" r:id="rId2"/>
     <sheet name="chitika_iphone" sheetId="4" r:id="rId3"/>
     <sheet name="source" sheetId="2" r:id="rId4"/>
+    <sheet name="layout" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>2015, 2016</t>
   </si>
@@ -538,6 +539,27 @@
   </si>
   <si>
     <t>iphone_share</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>State abbreviation</t>
+  </si>
+  <si>
+    <t>Percent share of mobile traffic that came from iPhones</t>
+  </si>
+  <si>
+    <t>Type of device or technology</t>
+  </si>
+  <si>
+    <t>Percent of surveyed ownership in 2000</t>
+  </si>
+  <si>
+    <t>Percent of surveyed ownership in 2016</t>
+  </si>
+  <si>
+    <t>Percent change between 2000 and 2016 surveye prevalence</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1077,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,6 +1155,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1170,7 +1206,7 @@
     <xf numFmtId="3" fontId="25" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="25" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="91">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1223,6 +1259,13 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1239,6 +1282,13 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -3971,7 +4021,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D1:D6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4067,6 +4117,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4080,7 +4131,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4664,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4736,4 +4787,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>